--- a/notebooks/assets/test_random_selection/keraspm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test_random_selection/keraspm25_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.622</v>
+        <v>1.929</v>
       </c>
       <c r="C2" t="n">
-        <v>1.911</v>
+        <v>1.531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.987</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="n">
-        <v>1.869</v>
+        <v>1.265</v>
       </c>
       <c r="F2" t="n">
-        <v>1.195</v>
+        <v>1.062</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.152</v>
+        <v>2.458</v>
       </c>
       <c r="C3" t="n">
-        <v>2.313</v>
+        <v>1.865</v>
       </c>
       <c r="D3" t="n">
-        <v>1.214</v>
+        <v>1.133</v>
       </c>
       <c r="E3" t="n">
-        <v>2.363</v>
+        <v>1.599</v>
       </c>
       <c r="F3" t="n">
-        <v>1.544</v>
+        <v>1.374</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.432</v>
+        <v>6.203</v>
       </c>
       <c r="C4" t="n">
-        <v>5.495</v>
+        <v>3.54</v>
       </c>
       <c r="D4" t="n">
-        <v>1.589</v>
+        <v>1.353</v>
       </c>
       <c r="E4" t="n">
-        <v>5.783</v>
+        <v>2.626</v>
       </c>
       <c r="F4" t="n">
-        <v>2.506</v>
+        <v>1.931</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.647</v>
+        <v>0.791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.271</v>
+        <v>0.574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.341</v>
+        <v>0.424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.445</v>
+        <v>0.734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.543</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.269</v>
+        <v>8.243</v>
       </c>
       <c r="C6" t="n">
-        <v>7.885</v>
+        <v>7.907</v>
       </c>
       <c r="D6" t="n">
-        <v>1.379</v>
+        <v>1.383</v>
       </c>
       <c r="E6" t="n">
         <v>3.581</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.734</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>8.644</v>
+        <v>8.712999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>1.675</v>
+        <v>1.677</v>
       </c>
       <c r="E7" t="n">
-        <v>4.111</v>
+        <v>4.086</v>
       </c>
       <c r="F7" t="n">
-        <v>4.343</v>
+        <v>4.342</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.782</v>
+        <v>95.313</v>
       </c>
       <c r="C8" t="n">
-        <v>76.014</v>
+        <v>76.364</v>
       </c>
       <c r="D8" t="n">
-        <v>2.847</v>
+        <v>2.859</v>
       </c>
       <c r="E8" t="n">
         <v>16.923</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.23</v>
+        <v>-2.281</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.33</v>
+        <v>-8.212999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.24</v>
+        <v>-0.193</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.482</v>
+        <v>-0.5610000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.472</v>
+        <v>-2.351</v>
       </c>
     </row>
   </sheetData>
